--- a/output_tables/DR2_results_P_reca_calibrated_21HS.xlsx
+++ b/output_tables/DR2_results_P_reca_calibrated_21HS.xlsx
@@ -522,11 +522,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>bulk_ec_inv</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-63.4135</v>
+        <v>-57.706</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>

--- a/output_tables/DR2_results_P_reca_calibrated_21HS.xlsx
+++ b/output_tables/DR2_results_P_reca_calibrated_21HS.xlsx
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.211</v>
+        <v>-0.214</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-2.5305</v>
+        <v>-2.5315</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-1.0975</v>
+        <v>-1.099</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.07100000000000001</v>
+        <v>0.07150000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/output_tables/DR2_results_P_reca_calibrated_21HS.xlsx
+++ b/output_tables/DR2_results_P_reca_calibrated_21HS.xlsx
@@ -498,15 +498,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.214</v>
+        <v>-0.2075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -514,27 +514,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-1.099</v>
+        <v>-1.1655</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>bulk_ec_inv</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-57.706</v>
+        <v>-67.261</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>PRP1.1</t>
+          <t>PRP1QP</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.07150000000000001</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/output_tables/DR2_results_P_reca_calibrated_21HS.xlsx
+++ b/output_tables/DR2_results_P_reca_calibrated_21HS.xlsx
@@ -493,48 +493,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>vwc</t>
+          <t>bulk_ec_inv</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PRPHQP</t>
+          <t>bulk_ec_inv</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.2075</v>
+        <v>-4.467499999999999</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PRPHQP</t>
+          <t>bulk_ec_inv</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-2.5315</v>
+        <v>-7.2985</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>PRPHQP</t>
+          <t>bulk_ec_inv</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-1.1655</v>
+        <v>-5.1595</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>PRPHQP</t>
+          <t>bulk_ec_inv</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-67.261</v>
+        <v>-289.5765</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>PRP1QP</t>
+          <t>bulk_ec_inv</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.08799999999999999</v>
+        <v>-0.5295000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/output_tables/DR2_results_P_reca_calibrated_21HS.xlsx
+++ b/output_tables/DR2_results_P_reca_calibrated_21HS.xlsx
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-4.467499999999999</v>
+        <v>-5.8815</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-7.2985</v>
+        <v>-9.079499999999999</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-5.1595</v>
+        <v>-6.369</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-289.5765</v>
+        <v>-343.9875</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>-0.5295000000000001</v>
+        <v>-0.5900000000000001</v>
       </c>
     </row>
   </sheetData>
